--- a/projects/tRNAseq_third-gen/data/SWalign/alignment_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/SWalign/alignment_stats.xlsx
@@ -876,49 +876,49 @@
         <v>114</v>
       </c>
       <c r="R2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="S2">
         <v>38</v>
       </c>
       <c r="T2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="U2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="V2">
-        <v>99.68152866242038</v>
+        <v>99.68220338983051</v>
       </c>
       <c r="W2">
-        <v>95.95314164004259</v>
+        <v>95.96174282678001</v>
       </c>
       <c r="X2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="Y2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="Z2">
-        <v>928.1783102791524</v>
+        <v>930.1747676559607</v>
       </c>
       <c r="AA2">
-        <v>98.61995753715499</v>
+        <v>98.62288135593221</v>
       </c>
       <c r="AB2">
-        <v>93.19330029806974</v>
+        <v>93.2082905435974</v>
       </c>
       <c r="AC2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AD2">
-        <v>74.50980392156863</v>
+        <v>74.67391304347827</v>
       </c>
       <c r="AE2">
-        <v>25.49019607843137</v>
+        <v>25.32608695652174</v>
       </c>
       <c r="AF2">
-        <v>98.81593110871906</v>
+        <v>98.81847475832438</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -974,49 +974,49 @@
         <v>115</v>
       </c>
       <c r="R3">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="S3">
         <v>14</v>
       </c>
       <c r="T3">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="U3">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="V3">
-        <v>98.36552748885586</v>
+        <v>98.22485207100591</v>
       </c>
       <c r="W3">
-        <v>97.88519637462235</v>
+        <v>97.89156626506023</v>
       </c>
       <c r="X3">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="Y3">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="Z3">
-        <v>662.5816024716478</v>
+        <v>666.5765359455836</v>
       </c>
       <c r="AA3">
-        <v>98.51411589895989</v>
+        <v>98.66863905325444</v>
       </c>
       <c r="AB3">
-        <v>93.72430470201184</v>
+        <v>93.76267634644468</v>
       </c>
       <c r="AC3">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="AD3">
-        <v>74.07975460122699</v>
+        <v>74.04580152671755</v>
       </c>
       <c r="AE3">
-        <v>25.92024539877301</v>
+        <v>25.95419847328244</v>
       </c>
       <c r="AF3">
-        <v>98.34087481146304</v>
+        <v>98.20089955022489</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1093,7 +1093,7 @@
         <v>692</v>
       </c>
       <c r="Y4">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Z4">
         <v>691.5441796306986</v>
@@ -1102,7 +1102,7 @@
         <v>97.60225669957687</v>
       </c>
       <c r="AB4">
-        <v>91.24507422460981</v>
+        <v>91.53428206684313</v>
       </c>
       <c r="AC4">
         <v>673</v>
@@ -1170,37 +1170,37 @@
         <v>114</v>
       </c>
       <c r="R5">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="S5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T5">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="U5">
         <v>608</v>
       </c>
       <c r="V5">
-        <v>99.18433931484503</v>
+        <v>99.50900163666121</v>
       </c>
       <c r="W5">
-        <v>89.47368421052632</v>
+        <v>89.63815789473685</v>
       </c>
       <c r="X5">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Y5">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Z5">
-        <v>597.6596615226008</v>
+        <v>595.6619356977171</v>
       </c>
       <c r="AA5">
-        <v>97.55301794453507</v>
+        <v>97.54500818330605</v>
       </c>
       <c r="AB5">
-        <v>93.02953433121645</v>
+        <v>93.00577505444977</v>
       </c>
       <c r="AC5">
         <v>569</v>
@@ -1212,7 +1212,7 @@
         <v>29.87697715289983</v>
       </c>
       <c r="AF5">
-        <v>95.15050167224081</v>
+        <v>95.46979865771812</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1271,10 +1271,10 @@
         <v>748</v>
       </c>
       <c r="S6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T6">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="U6">
         <v>739</v>
@@ -1283,13 +1283,13 @@
         <v>98.79679144385027</v>
       </c>
       <c r="W6">
-        <v>73.20703653585927</v>
+        <v>73.34235453315291</v>
       </c>
       <c r="X6">
         <v>739</v>
       </c>
       <c r="Y6">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z6">
         <v>738.4801268206211</v>
@@ -1298,16 +1298,16 @@
         <v>98.79679144385027</v>
       </c>
       <c r="AB6">
-        <v>95.46634694629319</v>
+        <v>95.60176020437304</v>
       </c>
       <c r="AC6">
         <v>733</v>
       </c>
       <c r="AD6">
-        <v>73.53342428376536</v>
+        <v>73.66984993178717</v>
       </c>
       <c r="AE6">
-        <v>26.46657571623465</v>
+        <v>26.33015006821283</v>
       </c>
       <c r="AF6">
         <v>99.18809201623816</v>
@@ -1366,49 +1366,49 @@
         <v>116</v>
       </c>
       <c r="R7">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="S7">
         <v>169</v>
       </c>
       <c r="T7">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U7">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V7">
-        <v>98.63013698630137</v>
+        <v>98.62825788751715</v>
       </c>
       <c r="W7">
-        <v>76.52777777777777</v>
+        <v>76.49513212795549</v>
       </c>
       <c r="X7">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Y7">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z7">
-        <v>719.5065271721687</v>
+        <v>718.507897617179</v>
       </c>
       <c r="AA7">
-        <v>98.63013698630137</v>
+        <v>98.62825788751715</v>
       </c>
       <c r="AB7">
-        <v>91.59055201208893</v>
+        <v>91.57867327306435</v>
       </c>
       <c r="AC7">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AD7">
-        <v>72.6241134751773</v>
+        <v>72.66288951841361</v>
       </c>
       <c r="AE7">
-        <v>27.3758865248227</v>
+        <v>27.3371104815864</v>
       </c>
       <c r="AF7">
-        <v>97.91666666666666</v>
+        <v>98.19193324061196</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1464,49 +1464,49 @@
         <v>114</v>
       </c>
       <c r="R8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S8">
         <v>38</v>
       </c>
       <c r="T8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V8">
         <v>100</v>
       </c>
       <c r="W8">
-        <v>80.90452261306532</v>
+        <v>81</v>
       </c>
       <c r="X8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z8">
-        <v>194.9639269271283</v>
+        <v>195.9635550629464</v>
       </c>
       <c r="AA8">
-        <v>97.98994974874373</v>
+        <v>98</v>
       </c>
       <c r="AB8">
-        <v>89.76019449249694</v>
+        <v>89.81261844502984</v>
       </c>
       <c r="AC8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD8">
-        <v>63.54166666666667</v>
+        <v>63.73056994818653</v>
       </c>
       <c r="AE8">
-        <v>36.45833333333333</v>
+        <v>36.26943005181347</v>
       </c>
       <c r="AF8">
-        <v>98.46153846153847</v>
+        <v>98.46938775510205</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1562,49 +1562,49 @@
         <v>115</v>
       </c>
       <c r="R9">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="S9">
         <v>176</v>
       </c>
       <c r="T9">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="U9">
+        <v>761</v>
+      </c>
+      <c r="V9">
+        <v>99.34725848563968</v>
+      </c>
+      <c r="W9">
+        <v>76.87253613666229</v>
+      </c>
+      <c r="X9">
         <v>758</v>
       </c>
-      <c r="V9">
-        <v>99.34469200524246</v>
-      </c>
-      <c r="W9">
-        <v>76.78100263852242</v>
-      </c>
-      <c r="X9">
-        <v>754</v>
-      </c>
       <c r="Y9">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="Z9">
-        <v>753.4587987468694</v>
+        <v>757.4530388847925</v>
       </c>
       <c r="AA9">
-        <v>98.82044560943643</v>
+        <v>98.9556135770235</v>
       </c>
       <c r="AB9">
-        <v>94.76297857129067</v>
+        <v>94.65933373977191</v>
       </c>
       <c r="AC9">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="AD9">
-        <v>73.77049180327869</v>
+        <v>73.77717391304347</v>
       </c>
       <c r="AE9">
-        <v>26.22950819672131</v>
+        <v>26.22282608695652</v>
       </c>
       <c r="AF9">
-        <v>97.08222811671088</v>
+        <v>97.0976253298153</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1660,49 +1660,49 @@
         <v>116</v>
       </c>
       <c r="R10">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="S10">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="T10">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="U10">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="V10">
-        <v>99.21348314606742</v>
+        <v>99.2152466367713</v>
       </c>
       <c r="W10">
-        <v>55.60588901472253</v>
+        <v>55.59322033898305</v>
       </c>
       <c r="X10">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="Y10">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="Z10">
-        <v>875.2694146605209</v>
+        <v>878.26440061623</v>
       </c>
       <c r="AA10">
-        <v>98.42696629213484</v>
+        <v>98.54260089686099</v>
       </c>
       <c r="AB10">
-        <v>91.51467954705961</v>
+        <v>91.43032547335164</v>
       </c>
       <c r="AC10">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="AD10">
-        <v>69.9074074074074</v>
+        <v>70.09237875288684</v>
       </c>
       <c r="AE10">
-        <v>30.09259259259259</v>
+        <v>29.90762124711316</v>
       </c>
       <c r="AF10">
-        <v>98.63013698630137</v>
+        <v>98.52104664391354</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1758,49 +1758,49 @@
         <v>114</v>
       </c>
       <c r="R11">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="S11">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="T11">
         <v>692</v>
       </c>
       <c r="U11">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="V11">
-        <v>98.98720682302772</v>
+        <v>98.87940234791888</v>
       </c>
       <c r="W11">
-        <v>37.26440495422725</v>
+        <v>37.34484619535888</v>
       </c>
       <c r="X11">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="Y11">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="Z11">
-        <v>1846.741643405985</v>
+        <v>1844.748682464415</v>
       </c>
       <c r="AA11">
-        <v>98.61407249466951</v>
+        <v>98.61259338313766</v>
       </c>
       <c r="AB11">
-        <v>92.32477136625522</v>
+        <v>92.31609791556802</v>
       </c>
       <c r="AC11">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="AD11">
-        <v>71.93849533223504</v>
+        <v>71.97802197802199</v>
       </c>
       <c r="AE11">
-        <v>28.06150466776496</v>
+        <v>28.02197802197802</v>
       </c>
       <c r="AF11">
-        <v>98.43243243243244</v>
+        <v>98.48484848484848</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1859,10 +1859,10 @@
         <v>1922</v>
       </c>
       <c r="S12">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="T12">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="U12">
         <v>1903</v>
@@ -1871,13 +1871,13 @@
         <v>99.01144640998959</v>
       </c>
       <c r="W12">
-        <v>33.31581713084603</v>
+        <v>33.21071991592223</v>
       </c>
       <c r="X12">
         <v>1887</v>
       </c>
       <c r="Y12">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Z12">
         <v>1883.610049548908</v>
@@ -1886,19 +1886,19 @@
         <v>98.1789802289282</v>
       </c>
       <c r="AB12">
-        <v>93.17215102033948</v>
+        <v>93.22524056508041</v>
       </c>
       <c r="AC12">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="AD12">
-        <v>72.07403375068046</v>
+        <v>72.11328976034858</v>
       </c>
       <c r="AE12">
-        <v>27.92596624931954</v>
+        <v>27.88671023965142</v>
       </c>
       <c r="AF12">
-        <v>97.35029146793853</v>
+        <v>97.29729729729731</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1954,49 +1954,49 @@
         <v>116</v>
       </c>
       <c r="R13">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="S13">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="T13">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="U13">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="V13">
-        <v>99.05027932960894</v>
+        <v>99.05133928571429</v>
       </c>
       <c r="W13">
-        <v>33.89734912577552</v>
+        <v>34.02816901408451</v>
       </c>
       <c r="X13">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="Y13">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="Z13">
-        <v>1751.070942014514</v>
+        <v>1752.067602111783</v>
       </c>
       <c r="AA13">
-        <v>97.98882681564245</v>
+        <v>97.93526785714286</v>
       </c>
       <c r="AB13">
-        <v>91.71530184564553</v>
+        <v>91.60605435917419</v>
       </c>
       <c r="AC13">
         <v>1648</v>
       </c>
       <c r="AD13">
-        <v>69.29611650485437</v>
+        <v>69.35679611650485</v>
       </c>
       <c r="AE13">
-        <v>30.70388349514563</v>
+        <v>30.64320388349515</v>
       </c>
       <c r="AF13">
-        <v>93.95667046750285</v>
+        <v>93.90313390313391</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -2052,49 +2052,49 @@
         <v>115</v>
       </c>
       <c r="R14">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S14">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T14">
         <v>313</v>
       </c>
       <c r="U14">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V14">
-        <v>99.09090909090909</v>
+        <v>99.34980494148245</v>
       </c>
       <c r="W14">
-        <v>41.02228047182175</v>
+        <v>40.96858638743456</v>
       </c>
       <c r="X14">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Y14">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Z14">
-        <v>761.4472485492006</v>
+        <v>760.4486989899306</v>
       </c>
       <c r="AA14">
-        <v>98.96103896103897</v>
+        <v>98.95968790637191</v>
       </c>
       <c r="AB14">
-        <v>94.03146460430554</v>
+        <v>94.02343655130214</v>
       </c>
       <c r="AC14">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD14">
-        <v>74.6347941567065</v>
+        <v>74.73404255319149</v>
       </c>
       <c r="AE14">
-        <v>25.36520584329349</v>
+        <v>25.26595744680851</v>
       </c>
       <c r="AF14">
-        <v>98.81889763779527</v>
+        <v>98.8173455978975</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -2248,49 +2248,49 @@
         <v>114</v>
       </c>
       <c r="R16">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="S16">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T16">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="U16">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="V16">
-        <v>98.82198952879581</v>
+        <v>98.82659713168188</v>
       </c>
       <c r="W16">
-        <v>40</v>
+        <v>40.10554089709763</v>
       </c>
       <c r="X16">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="Y16">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="Z16">
-        <v>753.4587987468694</v>
+        <v>756.4544817071874</v>
       </c>
       <c r="AA16">
-        <v>98.69109947643979</v>
+        <v>98.69621903520208</v>
       </c>
       <c r="AB16">
-        <v>91.97583214272331</v>
+        <v>91.87598418764138</v>
       </c>
       <c r="AC16">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AD16">
-        <v>72.42798353909464</v>
+        <v>72.36662106703146</v>
       </c>
       <c r="AE16">
-        <v>27.57201646090535</v>
+        <v>27.63337893296854</v>
       </c>
       <c r="AF16">
-        <v>96.68435013262599</v>
+        <v>96.56538969616909</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -2346,49 +2346,49 @@
         <v>115</v>
       </c>
       <c r="R17">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="S17">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="T17">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U17">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="V17">
-        <v>99.18256130790191</v>
+        <v>99.04371584699454</v>
       </c>
       <c r="W17">
-        <v>24.58791208791209</v>
+        <v>24.55172413793104</v>
       </c>
       <c r="X17">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="Y17">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Z17">
-        <v>717.5092661575181</v>
+        <v>715.5119975239504</v>
       </c>
       <c r="AA17">
-        <v>97.82016348773843</v>
+        <v>97.81420765027322</v>
       </c>
       <c r="AB17">
-        <v>94.49355318167494</v>
+        <v>94.89708102026225</v>
       </c>
       <c r="AC17">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AD17">
-        <v>75.07246376811594</v>
+        <v>75.1453488372093</v>
       </c>
       <c r="AE17">
-        <v>24.92753623188406</v>
+        <v>24.8546511627907</v>
       </c>
       <c r="AF17">
-        <v>96.10027855153204</v>
+        <v>96.08938547486034</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2444,37 +2444,37 @@
         <v>116</v>
       </c>
       <c r="R18">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S18">
         <v>534</v>
       </c>
       <c r="T18">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U18">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="V18">
-        <v>99.19028340080972</v>
+        <v>99.45945945945947</v>
       </c>
       <c r="W18">
-        <v>27.3469387755102</v>
+        <v>27.44565217391304</v>
       </c>
       <c r="X18">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Y18">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Z18">
-        <v>726.4968807243858</v>
+        <v>725.4982645025011</v>
       </c>
       <c r="AA18">
-        <v>98.11066126855602</v>
+        <v>98.1081081081081</v>
       </c>
       <c r="AB18">
-        <v>91.94808921050577</v>
+        <v>91.93681537713735</v>
       </c>
       <c r="AC18">
         <v>708</v>
@@ -2486,7 +2486,7 @@
         <v>29.37853107344633</v>
       </c>
       <c r="AF18">
-        <v>97.38651994497937</v>
+        <v>97.52066115702479</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2545,19 +2545,19 @@
         <v>652</v>
       </c>
       <c r="S19">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T19">
         <v>189</v>
       </c>
       <c r="U19">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="V19">
-        <v>98.46625766871165</v>
+        <v>98.61963190184049</v>
       </c>
       <c r="W19">
-        <v>29.4392523364486</v>
+        <v>29.39346811819596</v>
       </c>
       <c r="X19">
         <v>641</v>
@@ -2640,49 +2640,49 @@
         <v>115</v>
       </c>
       <c r="R20">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S20">
         <v>83</v>
       </c>
       <c r="T20">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U20">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V20">
         <v>100</v>
       </c>
       <c r="W20">
-        <v>58.91089108910891</v>
+        <v>58.70646766169154</v>
       </c>
       <c r="X20">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y20">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z20">
-        <v>197.9628056146903</v>
+        <v>196.9631812921143</v>
       </c>
       <c r="AA20">
-        <v>98.01980198019803</v>
+        <v>98.00995024875621</v>
       </c>
       <c r="AB20">
-        <v>91.43131682640109</v>
+        <v>91.38763845058109</v>
       </c>
       <c r="AC20">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD20">
-        <v>72.16494845360825</v>
+        <v>72.02072538860104</v>
       </c>
       <c r="AE20">
-        <v>27.83505154639175</v>
+        <v>27.97927461139896</v>
       </c>
       <c r="AF20">
-        <v>97.97979797979798</v>
+        <v>97.96954314720813</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2738,49 +2738,49 @@
         <v>116</v>
       </c>
       <c r="R21">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S21">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T21">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U21">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="V21">
-        <v>99.5702005730659</v>
+        <v>99.56958393113344</v>
       </c>
       <c r="W21">
-        <v>30.07194244604317</v>
+        <v>29.82708933717579</v>
       </c>
       <c r="X21">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y21">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Z21">
-        <v>685.5520537241246</v>
+        <v>684.5533594060107</v>
       </c>
       <c r="AA21">
-        <v>98.28080229226362</v>
+        <v>98.27833572453372</v>
       </c>
       <c r="AB21">
-        <v>93.06368444732861</v>
+        <v>93.05337432756551</v>
       </c>
       <c r="AC21">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AD21">
-        <v>73.44720496894411</v>
+        <v>73.56143079315709</v>
       </c>
       <c r="AE21">
-        <v>26.5527950310559</v>
+        <v>26.43856920684292</v>
       </c>
       <c r="AF21">
-        <v>93.87755102040816</v>
+        <v>93.86861313868613</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -2836,49 +2836,49 @@
         <v>114</v>
       </c>
       <c r="R22">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="S22">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T22">
         <v>139</v>
       </c>
       <c r="U22">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="V22">
-        <v>99.67141292442497</v>
+        <v>99.67105263157895</v>
       </c>
       <c r="W22">
-        <v>15.27472527472528</v>
+        <v>15.29152915291529</v>
       </c>
       <c r="X22">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Y22">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="Z22">
-        <v>897.2322470378713</v>
+        <v>896.2339564684662</v>
       </c>
       <c r="AA22">
-        <v>98.35706462212487</v>
+        <v>98.35526315789474</v>
       </c>
       <c r="AB22">
-        <v>91.94943702967217</v>
+        <v>91.82870098372099</v>
       </c>
       <c r="AC22">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AD22">
-        <v>71.815107102593</v>
+        <v>71.6704288939052</v>
       </c>
       <c r="AE22">
-        <v>28.18489289740699</v>
+        <v>28.32957110609481</v>
       </c>
       <c r="AF22">
-        <v>98.77505567928731</v>
+        <v>98.7736900780379</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -3216,49 +3216,49 @@
         <v>116</v>
       </c>
       <c r="R26">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="S26">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T26">
         <v>33</v>
       </c>
       <c r="U26">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="V26">
-        <v>99.20529801324504</v>
+        <v>99.20634920634922</v>
       </c>
       <c r="W26">
-        <v>4.405874499332444</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="X26">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Y26">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Z26">
-        <v>745.4702270494308</v>
+        <v>746.4688051778357</v>
       </c>
       <c r="AA26">
-        <v>98.80794701986756</v>
+        <v>98.80952380952381</v>
       </c>
       <c r="AB26">
-        <v>93.4980331486509</v>
+        <v>93.50692154291849</v>
       </c>
       <c r="AC26">
         <v>730</v>
       </c>
       <c r="AD26">
-        <v>73.83561643835617</v>
+        <v>73.97260273972603</v>
       </c>
       <c r="AE26">
-        <v>26.16438356164383</v>
+        <v>26.02739726027397</v>
       </c>
       <c r="AF26">
-        <v>97.85522788203752</v>
+        <v>97.72423025435074</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3335,7 +3335,7 @@
         <v>504</v>
       </c>
       <c r="Y27">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Z27">
         <v>503.7583092616405</v>
@@ -3344,16 +3344,16 @@
         <v>99.01768172888016</v>
       </c>
       <c r="AB27">
-        <v>96.07781968091001</v>
+        <v>95.8793117890073</v>
       </c>
       <c r="AC27">
         <v>492</v>
       </c>
       <c r="AD27">
-        <v>72.5609756097561</v>
+        <v>72.35772357723577</v>
       </c>
       <c r="AE27">
-        <v>27.4390243902439</v>
+        <v>27.64227642276423</v>
       </c>
       <c r="AF27">
         <v>97.61904761904762</v>
@@ -3412,49 +3412,49 @@
         <v>115</v>
       </c>
       <c r="R28">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S28">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="T28">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U28">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="V28">
-        <v>98.37177747625509</v>
+        <v>98.64130434782609</v>
       </c>
       <c r="W28">
-        <v>7.03448275862069</v>
+        <v>6.887052341597796</v>
       </c>
       <c r="X28">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Y28">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="Z28">
-        <v>725.4982645025011</v>
+        <v>723.501026344602</v>
       </c>
       <c r="AA28">
-        <v>98.50746268656717</v>
+        <v>98.36956521739131</v>
       </c>
       <c r="AB28">
-        <v>92.21248798696384</v>
+        <v>92.05239187632964</v>
       </c>
       <c r="AC28">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AD28">
-        <v>75.42857142857143</v>
+        <v>75.46628407460545</v>
       </c>
       <c r="AE28">
-        <v>24.57142857142857</v>
+        <v>24.53371592539455</v>
       </c>
       <c r="AF28">
-        <v>96.41873278236915</v>
+        <v>96.27071823204419</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3510,22 +3510,22 @@
         <v>116</v>
       </c>
       <c r="R29">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="S29">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="T29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U29">
         <v>866</v>
       </c>
       <c r="V29">
-        <v>99.31192660550458</v>
+        <v>99.19816723940436</v>
       </c>
       <c r="W29">
-        <v>3.233256351039261</v>
+        <v>3.348729792147806</v>
       </c>
       <c r="X29">
         <v>857</v>
@@ -3537,7 +3537,7 @@
         <v>856.3007722989423</v>
       </c>
       <c r="AA29">
-        <v>98.27981651376146</v>
+        <v>98.1672394043528</v>
       </c>
       <c r="AB29">
         <v>92.0237404299458</v>
@@ -3546,10 +3546,10 @@
         <v>817</v>
       </c>
       <c r="AD29">
-        <v>72.70501835985311</v>
+        <v>72.58261933904529</v>
       </c>
       <c r="AE29">
-        <v>27.29498164014688</v>
+        <v>27.41738066095471</v>
       </c>
       <c r="AF29">
         <v>95.33255542590432</v>
@@ -3608,7 +3608,7 @@
         <v>114</v>
       </c>
       <c r="R30">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S30">
         <v>754</v>
@@ -3620,37 +3620,37 @@
         <v>755</v>
       </c>
       <c r="V30">
-        <v>98.95150720838795</v>
+        <v>99.08136482939632</v>
       </c>
       <c r="W30">
         <v>0.1324503311258278</v>
       </c>
       <c r="X30">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Y30">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Z30">
-        <v>753.4587987468694</v>
+        <v>752.460233950871</v>
       </c>
       <c r="AA30">
-        <v>98.82044560943643</v>
+        <v>98.81889763779527</v>
       </c>
       <c r="AB30">
-        <v>92.63943843523934</v>
+        <v>92.62947974543833</v>
       </c>
       <c r="AC30">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AD30">
-        <v>75.30201342281879</v>
+        <v>75.13440860215053</v>
       </c>
       <c r="AE30">
-        <v>24.69798657718121</v>
+        <v>24.86559139784946</v>
       </c>
       <c r="AF30">
-        <v>98.80636604774536</v>
+        <v>98.80478087649402</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3706,37 +3706,37 @@
         <v>115</v>
       </c>
       <c r="R31">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S31">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V31">
-        <v>99.32659932659934</v>
+        <v>99.32546374367622</v>
       </c>
       <c r="W31">
-        <v>1.016949152542373</v>
+        <v>1.01867572156197</v>
       </c>
       <c r="X31">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Y31">
         <v>553</v>
       </c>
       <c r="Z31">
-        <v>582.6765320792329</v>
+        <v>581.6776415412896</v>
       </c>
       <c r="AA31">
-        <v>98.14814814814815</v>
+        <v>98.1450252951096</v>
       </c>
       <c r="AB31">
-        <v>94.90685990504292</v>
+        <v>95.06983946205985</v>
       </c>
       <c r="AC31">
         <v>579</v>
@@ -3748,7 +3748,7 @@
         <v>24.00690846286701</v>
       </c>
       <c r="AF31">
-        <v>99.31389365351629</v>
+        <v>99.48453608247422</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3825,7 +3825,7 @@
         <v>135</v>
       </c>
       <c r="Y32">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z32">
         <v>134.9827494903584</v>
@@ -3834,16 +3834,16 @@
         <v>99.26470588235294</v>
       </c>
       <c r="AB32">
-        <v>95.56776735327522</v>
+        <v>94.82693194743587</v>
       </c>
       <c r="AC32">
         <v>129</v>
       </c>
       <c r="AD32">
-        <v>58.13953488372093</v>
+        <v>58.91472868217054</v>
       </c>
       <c r="AE32">
-        <v>41.86046511627907</v>
+        <v>41.08527131782946</v>
       </c>
       <c r="AF32">
         <v>95.55555555555556</v>
@@ -3902,49 +3902,49 @@
         <v>114</v>
       </c>
       <c r="R33">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S33">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="V33">
-        <v>99.15134370579915</v>
+        <v>99.15014164305948</v>
       </c>
       <c r="W33">
-        <v>0.2853067047075606</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="X33">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y33">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Z33">
-        <v>692.5428606148926</v>
+        <v>691.5441796306986</v>
       </c>
       <c r="AA33">
-        <v>98.01980198019803</v>
+        <v>98.01699716713881</v>
       </c>
       <c r="AB33">
-        <v>92.41305288047573</v>
+        <v>92.40190559354306</v>
       </c>
       <c r="AC33">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AD33">
-        <v>75.29940119760479</v>
+        <v>75.2623688155922</v>
       </c>
       <c r="AE33">
-        <v>24.70059880239521</v>
+        <v>24.7376311844078</v>
       </c>
       <c r="AF33">
-        <v>96.3924963924964</v>
+        <v>96.38728323699422</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -4000,49 +4000,49 @@
         <v>115</v>
       </c>
       <c r="R34">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="S34">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T34">
         <v>9</v>
       </c>
       <c r="U34">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="V34">
-        <v>99.44258639910814</v>
+        <v>99.44320712694878</v>
       </c>
       <c r="W34">
-        <v>1.008968609865471</v>
+        <v>1.007838745800672</v>
       </c>
       <c r="X34">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="Y34">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="Z34">
-        <v>881.2593694346142</v>
+        <v>882.2576885657618</v>
       </c>
       <c r="AA34">
-        <v>98.32775919732441</v>
+        <v>98.32962138084632</v>
       </c>
       <c r="AB34">
-        <v>94.29686977775239</v>
+        <v>94.30351367666027</v>
       </c>
       <c r="AC34">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AD34">
-        <v>73.02857142857142</v>
+        <v>72.94520547945206</v>
       </c>
       <c r="AE34">
-        <v>26.97142857142858</v>
+        <v>27.05479452054795</v>
       </c>
       <c r="AF34">
-        <v>99.20634920634922</v>
+        <v>99.20724801812004</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4098,49 +4098,49 @@
         <v>116</v>
       </c>
       <c r="R35">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="S35">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="T35">
         <v>9</v>
       </c>
       <c r="U35">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="V35">
-        <v>99.18509895227008</v>
+        <v>99.1869918699187</v>
       </c>
       <c r="W35">
-        <v>1.056338028169014</v>
+        <v>1.053864168618267</v>
       </c>
       <c r="X35">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="Y35">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="Z35">
-        <v>846.3170002063853</v>
+        <v>848.3137698589708</v>
       </c>
       <c r="AA35">
-        <v>98.60302677532013</v>
+        <v>98.60627177700349</v>
       </c>
       <c r="AB35">
-        <v>92.2822062902604</v>
+        <v>92.30075330855128</v>
       </c>
       <c r="AC35">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="AD35">
-        <v>71.80722891566265</v>
+        <v>71.90876350540216</v>
       </c>
       <c r="AE35">
-        <v>28.19277108433735</v>
+        <v>28.09123649459784</v>
       </c>
       <c r="AF35">
-        <v>97.99291617473436</v>
+        <v>98.11542991755006</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -4196,22 +4196,22 @@
         <v>114</v>
       </c>
       <c r="R36">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="S36">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="V36">
-        <v>99.67602591792657</v>
+        <v>99.67637540453075</v>
       </c>
       <c r="W36">
-        <v>0.3250270855904659</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="X36">
         <v>911</v>
@@ -4223,7 +4223,7 @@
         <v>910.209851169202</v>
       </c>
       <c r="AA36">
-        <v>98.38012958963283</v>
+        <v>98.27400215749729</v>
       </c>
       <c r="AB36">
         <v>92.72586963499101</v>
@@ -4232,10 +4232,10 @@
         <v>881</v>
       </c>
       <c r="AD36">
-        <v>73.43927355278093</v>
+        <v>73.32576617480136</v>
       </c>
       <c r="AE36">
-        <v>26.56072644721907</v>
+        <v>26.67423382519864</v>
       </c>
       <c r="AF36">
         <v>96.70691547749726</v>
@@ -4294,49 +4294,49 @@
         <v>115</v>
       </c>
       <c r="R37">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="S37">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="T37">
         <v>4</v>
       </c>
       <c r="U37">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="V37">
-        <v>99.2835209825998</v>
+        <v>99.38712972420838</v>
       </c>
       <c r="W37">
-        <v>0.4123711340206186</v>
+        <v>0.4110996916752312</v>
       </c>
       <c r="X37">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="Y37">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="Z37">
-        <v>961.1188831339823</v>
+        <v>962.1170499451691</v>
       </c>
       <c r="AA37">
-        <v>98.46468781985671</v>
+        <v>98.36567926455567</v>
       </c>
       <c r="AB37">
-        <v>92.28827105214101</v>
+        <v>92.29646227042821</v>
       </c>
       <c r="AC37">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AD37">
-        <v>75.2953813104189</v>
+        <v>75.3763440860215</v>
       </c>
       <c r="AE37">
-        <v>24.7046186895811</v>
+        <v>24.6236559139785</v>
       </c>
       <c r="AF37">
-        <v>96.77754677754677</v>
+        <v>96.57320872274143</v>
       </c>
     </row>
   </sheetData>
